--- a/SoS/モデリング性能検証結果_2.xlsx
+++ b/SoS/モデリング性能検証結果_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fa827\Documents\会社\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fa827\Documents\会社\研究企画テーマ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6679139B-3EC2-441F-91F7-42CCAF6A7FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB15F1C-6882-4758-9ED1-0455DB07C1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>MLR</t>
     <phoneticPr fontId="1"/>
@@ -183,13 +183,43 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>予測誤差 最小値</t>
+    <rPh sb="0" eb="4">
+      <t>ヨソクゴサ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>サイショウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>比最大値</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>サイダイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>比最小値</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>サイショウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="186" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -230,7 +260,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -299,7 +329,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$D$2:$D$11</c:f>
+                <c:f>Sheet1!$E$2:$E$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
@@ -338,7 +368,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$E$2:$E$11</c:f>
+                <c:f>Sheet1!$F$2:$F$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
@@ -468,7 +498,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DA5B-4383-8A13-E685FDE1807B}"/>
+              <c16:uniqueId val="{00000000-EBEA-4CFA-834A-D909E5175FFD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -502,7 +532,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$F$2:$F$11</c:f>
+                <c:f>Sheet1!$G$2:$G$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
@@ -541,7 +571,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$G$2:$G$11</c:f>
+                <c:f>Sheet1!$H$2:$H$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
@@ -671,7 +701,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DA5B-4383-8A13-E685FDE1807B}"/>
+              <c16:uniqueId val="{00000001-EBEA-4CFA-834A-D909E5175FFD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -899,7 +929,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$D$2:$D$11</c:f>
+                <c:f>Sheet1!$E$2:$E$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
@@ -938,7 +968,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$E$2:$E$11</c:f>
+                <c:f>Sheet1!$F$2:$F$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
@@ -1068,7 +1098,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0CF3-424A-B445-6C6C046C91A8}"/>
+              <c16:uniqueId val="{00000000-6780-4077-8435-31BE8EB03B41}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1102,7 +1132,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$F$2:$F$11</c:f>
+                <c:f>Sheet1!$G$2:$G$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
@@ -1141,7 +1171,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$G$2:$G$11</c:f>
+                <c:f>Sheet1!$H$2:$H$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
@@ -1271,7 +1301,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0CF3-424A-B445-6C6C046C91A8}"/>
+              <c16:uniqueId val="{00000001-6780-4077-8435-31BE8EB03B41}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1280,7 +1310,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1299,9 +1329,105 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$I$2:$I$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.16435863670475626</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.10499999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.11987338287916316</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$J$2:$J$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.5666425951885292E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.10333333333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9.6889622901183636E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$11</c:f>
+              <c:f>Sheet1!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1318,7 +1444,7 @@
                   <c:v>0.49572649572649574</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.40191387559808617</c:v>
+                  <c:v>0.418974696628577</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.43712574850299402</c:v>
@@ -1330,17 +1456,17 @@
                   <c:v>0.43262411347517732</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.38194444444444448</c:v>
+                  <c:v>0.39500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.37417943107221002</c:v>
+                  <c:v>0.38012661712083684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0CF3-424A-B445-6C6C046C91A8}"/>
+              <c16:uniqueId val="{00000002-6780-4077-8435-31BE8EB03B41}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2607,23 +2733,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>653143</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>21771</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="グラフ 10">
+        <xdr:cNvPr id="4" name="グラフ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EF9BA23-79F3-45B2-822C-35E0E08C7F11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEDC74D3-C106-4284-AC65-C625A1656BCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2645,23 +2771,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>653143</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>21771</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="グラフ 11">
+        <xdr:cNvPr id="5" name="グラフ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3216120-1071-495B-BBE7-1021C5F1089E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2436997-0FF0-4135-8A38-7C2885C563F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2947,11 +3073,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -2959,7 +3083,7 @@
     <col min="4" max="4" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -2967,22 +3091,28 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
       <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
-        <v>13</v>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3007,8 +3137,14 @@
       <c r="H2">
         <v>0</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3018,24 +3154,30 @@
       <c r="C3">
         <v>0.62</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="D3" s="1">
         <f>C3/B3</f>
         <v>0.5688073394495412</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3045,24 +3187,30 @@
       <c r="C4">
         <v>0.62</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="D4" s="1">
         <f>C4/B4</f>
         <v>0.55357142857142849</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3072,57 +3220,71 @@
       <c r="C5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="D5" s="1">
         <f>C5/B5</f>
         <v>0.49572649572649574</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <f>AVERAGE(B13:B15)</f>
+        <f>AVERAGE(B14:B16)</f>
         <v>1.3933333333333333</v>
       </c>
       <c r="C6">
-        <f>AVERAGE(C13:C15)</f>
+        <f>AVERAGE(C14:C16)</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="D6" s="2">
-        <f>MAX(B13:B15)-B6</f>
+      <c r="D6" s="1">
+        <f>AVERAGE(D14:D16)</f>
+        <v>0.418974696628577</v>
+      </c>
+      <c r="E6" s="2">
+        <f>MAX(B14:B16)-B6</f>
         <v>0.37666666666666671</v>
       </c>
-      <c r="E6" s="2">
-        <f>B6-MIN(B13:B15)</f>
+      <c r="F6" s="2">
+        <f>B6-MIN(B14:B16)</f>
         <v>0.31333333333333324</v>
       </c>
-      <c r="F6" s="2">
-        <f>MAX(C13:C15)-C6</f>
+      <c r="G6" s="2">
+        <f>MAX(C14:C16)-C6</f>
         <v>6.9999999999999951E-2</v>
       </c>
-      <c r="G6" s="2">
-        <f>C6-MIN(C13:C15)</f>
+      <c r="H6" s="2">
+        <f>C6-MIN(C14:C16)</f>
         <v>0.13000000000000006</v>
       </c>
-      <c r="H6" s="1">
-        <f>C6/B6</f>
-        <v>0.40191387559808617</v>
+      <c r="I6" s="2">
+        <f>MAX(D14:D16)-D6</f>
+        <v>0.16435863670475626</v>
+      </c>
+      <c r="J6" s="2">
+        <f>D6-MIN(D14:D16)</f>
+        <v>9.5666425951885292E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -3132,24 +3294,30 @@
       <c r="C7">
         <v>0.73</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="D7" s="1">
         <f>C7/B7</f>
         <v>0.43712574850299402</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3159,24 +3327,30 @@
       <c r="C8">
         <v>0.51</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="D8" s="1">
         <f>C8/B8</f>
         <v>0.45132743362831862</v>
       </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -3186,186 +3360,263 @@
       <c r="C9">
         <v>0.61</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="D9" s="1">
         <f>C9/B9</f>
         <v>0.43262411347517732</v>
       </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10">
-        <f>AVERAGE(B16:B18)</f>
+        <f>AVERAGE(B17:B19)</f>
         <v>1.4399999999999997</v>
       </c>
       <c r="C10">
-        <f>AVERAGE(C16:C18)</f>
+        <f>AVERAGE(C17:C19)</f>
         <v>0.54999999999999993</v>
       </c>
       <c r="D10" s="1">
-        <f>MAX(B16:B18)-B10</f>
+        <f>AVERAGE(D17:D19)</f>
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="E10" s="1">
+        <f>MAX(B17:B19)-B10</f>
         <v>0.24000000000000021</v>
       </c>
-      <c r="E10" s="1">
-        <f>B10-MIN(B16:B18)</f>
+      <c r="F10" s="1">
+        <f>B10-MIN(B17:B19)</f>
         <v>0.29999999999999982</v>
       </c>
-      <c r="F10" s="1">
-        <f>MAX(C16:C18)-C10</f>
+      <c r="G10" s="1">
+        <f>MAX(C17:C19)-C10</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="G10" s="1">
-        <f>C10-MIN(C16:C18)</f>
+      <c r="H10" s="1">
+        <f>C10-MIN(C17:C19)</f>
         <v>5.9999999999999942E-2</v>
       </c>
-      <c r="H10" s="1">
-        <f>C10/B10</f>
-        <v>0.38194444444444448</v>
+      <c r="I10" s="1">
+        <f>MAX(D17:D19)-D10</f>
+        <v>0.10499999999999998</v>
+      </c>
+      <c r="J10" s="1">
+        <f>D10-MIN(D17:D19)</f>
+        <v>0.10333333333333333</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1">
-        <f>AVERAGE(B19:B21)</f>
+        <f>AVERAGE(B20:B22)</f>
         <v>1.5233333333333334</v>
       </c>
       <c r="C11">
-        <f>AVERAGE(C19:C21)</f>
+        <f>AVERAGE(C20:C22)</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="D11" s="2">
-        <f>MAX(B19:B21)-B11</f>
+      <c r="D11" s="1">
+        <f>AVERAGE(D20:D22)</f>
+        <v>0.38012661712083684</v>
+      </c>
+      <c r="E11" s="2">
+        <f>MAX(B20:B22)-B11</f>
         <v>0.20666666666666655</v>
       </c>
-      <c r="E11" s="2">
-        <f>B11-MIN(B19:B21)</f>
+      <c r="F11" s="2">
+        <f>B11-MIN(B20:B22)</f>
         <v>0.12333333333333352</v>
       </c>
-      <c r="F11" s="2">
-        <f>MAX(C19:C21)-C11</f>
+      <c r="G11" s="2">
+        <f>MAX(C20:C22)-C11</f>
         <v>0.15000000000000002</v>
       </c>
-      <c r="G11" s="2">
-        <f>C11-MIN(C19:C21)</f>
+      <c r="H11" s="2">
+        <f>C11-MIN(C20:C22)</f>
         <v>7.999999999999996E-2</v>
       </c>
-      <c r="H11" s="1">
-        <f>C11/B11</f>
-        <v>0.37417943107221002</v>
+      <c r="I11" s="2">
+        <f>MAX(D20:D22)-D11</f>
+        <v>0.11987338287916316</v>
+      </c>
+      <c r="J11" s="2">
+        <f>D11-MIN(D20:D22)</f>
+        <v>9.6889622901183636E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>1.08</v>
-      </c>
-      <c r="C13">
-        <v>0.63</v>
-      </c>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="C14">
-        <v>0.43</v>
+        <v>0.63</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" ref="D14:D22" si="0">C14/B14</f>
+        <v>0.58333333333333326</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15">
+        <v>1.33</v>
+      </c>
+      <c r="C15">
+        <v>0.43</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32330827067669171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
         <v>1.77</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>0.62</v>
       </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35028248587570621</v>
+      </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="C16">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17">
-        <v>1.5</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C17">
-        <v>0.59</v>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18">
+        <v>1.5</v>
+      </c>
+      <c r="C18">
+        <v>0.59</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39333333333333331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
         <v>1.68</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>0.49</v>
       </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29166666666666669</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <v>1.4</v>
-      </c>
-      <c r="C19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="C20">
-        <v>0.72</v>
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21">
+        <v>1.44</v>
+      </c>
+      <c r="C21">
+        <v>0.72</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
         <v>1.73</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>0.49</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2832369942196532</v>
       </c>
     </row>
   </sheetData>
